--- a/Заказ в Китае бланк.xlsx
+++ b/Заказ в Китае бланк.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,94 +453,30 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Бутылка SL 0.5л</t>
+          <t>Овощечистка нерж</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>517</v>
+        <v>570</v>
       </c>
       <c r="C3" t="n">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="D3" t="n">
-        <v>110638</v>
+        <v>80370</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Бутылка 1л</t>
+          <t>Итого:</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180</v>
-      </c>
-      <c r="C4" t="n">
-        <v>228</v>
+        <v>570</v>
       </c>
       <c r="D4" t="n">
-        <v>41040</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Полотенце SL</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>354</v>
-      </c>
-      <c r="C5" t="n">
-        <v>302</v>
-      </c>
-      <c r="D5" t="n">
-        <v>106908</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Планшет 8,5</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>958</v>
-      </c>
-      <c r="C6" t="n">
-        <v>195</v>
-      </c>
-      <c r="D6" t="n">
-        <v>186810</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Планшет 8,5 цвет</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>151</v>
-      </c>
-      <c r="D7" t="n">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Итого:</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D8" t="n">
-        <v>446302</v>
+        <v>80370</v>
       </c>
     </row>
   </sheetData>

--- a/Заказ в Китае бланк.xlsx
+++ b/Заказ в Китае бланк.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,30 +453,94 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Овощечистка нерж</t>
+          <t>Бутылка SL 0.5л</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>570</v>
+        <v>493</v>
       </c>
       <c r="C3" t="n">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="D3" t="n">
-        <v>80370</v>
+        <v>105502</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Бутылка 1л</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>165</v>
+      </c>
+      <c r="C4" t="n">
+        <v>228</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37620</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Полотенце SL</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>427</v>
+      </c>
+      <c r="C5" t="n">
+        <v>302</v>
+      </c>
+      <c r="D5" t="n">
+        <v>128954</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Овощечистка нерж</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>105</v>
+      </c>
+      <c r="C6" t="n">
+        <v>141</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14805</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Планшет 8,5</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1692</v>
+      </c>
+      <c r="C7" t="n">
+        <v>195</v>
+      </c>
+      <c r="D7" t="n">
+        <v>329940</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Итого:</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>570</v>
-      </c>
-      <c r="D4" t="n">
-        <v>80370</v>
+      <c r="B8" t="n">
+        <v>2882</v>
+      </c>
+      <c r="D8" t="n">
+        <v>616821</v>
       </c>
     </row>
   </sheetData>

--- a/Заказ в Китае бланк.xlsx
+++ b/Заказ в Китае бланк.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Период обеспечения 2 мес.</t>
+          <t>Период обеспечения 6 мес.</t>
         </is>
       </c>
     </row>
@@ -453,94 +453,466 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Бутылка SL 0.5л</t>
+          <t>Бутылка для воды-синяя</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493</v>
+        <v>215</v>
       </c>
       <c r="C3" t="n">
         <v>214</v>
       </c>
       <c r="D3" t="n">
-        <v>105502</v>
+        <v>46010</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Бутылка 1л</t>
+          <t>Бутылка для воды-черная</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="C4" t="n">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D4" t="n">
-        <v>37620</v>
+        <v>26108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Полотенце SL</t>
+          <t>Бутылка для воды-голубая</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>427</v>
+        <v>120</v>
       </c>
       <c r="C5" t="n">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="D5" t="n">
-        <v>128954</v>
+        <v>25680</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Овощечистка нерж</t>
+          <t>Бутылка для воды-зеленая</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="C6" t="n">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="D6" t="n">
-        <v>14805</v>
+        <v>38734</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Планшет 8,5</t>
+          <t>Бутылка для воды-красная</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1692</v>
+        <v>147</v>
       </c>
       <c r="C7" t="n">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="D7" t="n">
-        <v>329940</v>
+        <v>31458</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Бутылка для воды-оранжевый</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>40</v>
+      </c>
+      <c r="C8" t="n">
+        <v>214</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Бутылка для воды-фиолетовый</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>109</v>
+      </c>
+      <c r="C9" t="n">
+        <v>214</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23326</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Бутылка для воды-аквамарин</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>173</v>
+      </c>
+      <c r="C10" t="n">
+        <v>214</v>
+      </c>
+      <c r="D10" t="n">
+        <v>37022</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Бутылка для воды 1 литр-фиолетовый</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C11" t="n">
+        <v>228</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Бутылка для воды 1 литр-оранжевый</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>54</v>
+      </c>
+      <c r="C12" t="n">
+        <v>228</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12312</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Бутылка для воды 1 литр-аквамарин</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82</v>
+      </c>
+      <c r="C13" t="n">
+        <v>228</v>
+      </c>
+      <c r="D13" t="n">
+        <v>18696</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Бутылка для воды 1 литр-черный</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>77</v>
+      </c>
+      <c r="C14" t="n">
+        <v>228</v>
+      </c>
+      <c r="D14" t="n">
+        <v>17556</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Бутылка для воды 1 литр-серый</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>30</v>
+      </c>
+      <c r="C15" t="n">
+        <v>228</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Бутылка для воды 1 литр-чернильный</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+      <c r="C16" t="n">
+        <v>228</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Шейкер черный - чернильный</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>264</v>
+      </c>
+      <c r="C17" t="n">
+        <v>216</v>
+      </c>
+      <c r="D17" t="n">
+        <v>57024</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Шейкер черный - зеленый</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>336</v>
+      </c>
+      <c r="C18" t="n">
+        <v>216</v>
+      </c>
+      <c r="D18" t="n">
+        <v>72576</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Шейкер черный - черный</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>29</v>
+      </c>
+      <c r="C19" t="n">
+        <v>216</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6264</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Шейкер черный - голубой</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>230</v>
+      </c>
+      <c r="C20" t="n">
+        <v>216</v>
+      </c>
+      <c r="D20" t="n">
+        <v>49680</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Шейкер цвет- голубой</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>86</v>
+      </c>
+      <c r="C21" t="n">
+        <v>168</v>
+      </c>
+      <c r="D21" t="n">
+        <v>14448</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Одноцветный планшет, черный, 10 дм</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>200</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Электронный планшет 12 дюйм - зеленый</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>42</v>
+      </c>
+      <c r="C23" t="n">
+        <v>380</v>
+      </c>
+      <c r="D23" t="n">
+        <v>15960</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Электронный планшет 12 дюйм - красный</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>78</v>
+      </c>
+      <c r="C24" t="n">
+        <v>380</v>
+      </c>
+      <c r="D24" t="n">
+        <v>29640</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Электронный планшет 12 дюйм - розовый</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>88</v>
+      </c>
+      <c r="C25" t="n">
+        <v>380</v>
+      </c>
+      <c r="D25" t="n">
+        <v>33440</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Электронный планшет 12 дюйм - черный-матовый</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>131</v>
+      </c>
+      <c r="C26" t="n">
+        <v>380</v>
+      </c>
+      <c r="D26" t="n">
+        <v>49780</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Электронный планшет 12 дюйм - голубой</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>69</v>
+      </c>
+      <c r="C27" t="n">
+        <v>380</v>
+      </c>
+      <c r="D27" t="n">
+        <v>26220</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Электронный планшет 12 дюйм - синий</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>113</v>
+      </c>
+      <c r="C28" t="n">
+        <v>380</v>
+      </c>
+      <c r="D28" t="n">
+        <v>42940</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Электронный планшет 12 дюйм - белый</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>106</v>
+      </c>
+      <c r="C29" t="n">
+        <v>380</v>
+      </c>
+      <c r="D29" t="n">
+        <v>40280</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Электронный планшет 12 дюйм - черный</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>73</v>
+      </c>
+      <c r="C30" t="n">
+        <v>380</v>
+      </c>
+      <c r="D30" t="n">
+        <v>27740</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Итого:</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>2882</v>
-      </c>
-      <c r="D8" t="n">
-        <v>616821</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3 044 шт.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>769 130 руб.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Заказ в Китае бланк.xlsx
+++ b/Заказ в Китае бланк.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Период обеспечения 6 мес.</t>
+          <t>Период обеспечения 3 мес.</t>
         </is>
       </c>
     </row>
@@ -453,33 +453,33 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Бутылка для воды-синяя</t>
+          <t>Бутылка для воды-красная</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="C3" t="n">
         <v>214</v>
       </c>
       <c r="D3" t="n">
-        <v>46010</v>
+        <v>56496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Бутылка для воды-черная</t>
+          <t>Бутылка для воды-синяя</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>214</v>
       </c>
       <c r="D4" t="n">
-        <v>26108</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="C5" t="n">
         <v>214</v>
       </c>
       <c r="D5" t="n">
-        <v>25680</v>
+        <v>8774</v>
       </c>
     </row>
     <row r="6">
@@ -505,413 +505,349 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="C6" t="n">
         <v>214</v>
       </c>
       <c r="D6" t="n">
-        <v>38734</v>
+        <v>32956</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Бутылка для воды-красная</t>
+          <t>Бутылка для воды-оранжевый</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
         <v>214</v>
       </c>
       <c r="D7" t="n">
-        <v>31458</v>
+        <v>7918</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Бутылка для воды-оранжевый</t>
+          <t>Бутылка для воды-фиолетовый</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>214</v>
       </c>
       <c r="D8" t="n">
-        <v>8560</v>
+        <v>5992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Бутылка для воды-фиолетовый</t>
+          <t>Бутылка для воды-аквамарин</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>214</v>
       </c>
       <c r="D9" t="n">
-        <v>23326</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Бутылка для воды-аквамарин</t>
+          <t>Бутылка для воды 1 литр-оранжевый</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="D10" t="n">
-        <v>37022</v>
+        <v>5928</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Бутылка для воды 1 литр-фиолетовый</t>
+          <t>Бутылка для воды 1 литр-аквамарин</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
         <v>228</v>
       </c>
       <c r="D11" t="n">
-        <v>4332</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Бутылка для воды 1 литр-оранжевый</t>
+          <t>Бутылка для воды 1 литр-черный</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>228</v>
       </c>
       <c r="D12" t="n">
-        <v>12312</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Бутылка для воды 1 литр-аквамарин</t>
+          <t>Бутылка для воды 1 литр-аквамариновый</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>228</v>
       </c>
       <c r="D13" t="n">
-        <v>18696</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Бутылка для воды 1 литр-черный</t>
+          <t>Шейкер черный - черный</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="C14" t="n">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D14" t="n">
-        <v>17556</v>
+        <v>45792</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Бутылка для воды 1 литр-серый</t>
+          <t>Шейкер черный - голубой</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C15" t="n">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D15" t="n">
-        <v>6840</v>
+        <v>14256</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Бутылка для воды 1 литр-чернильный</t>
+          <t>Шейкер черный - фиолетовый</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D16" t="n">
-        <v>4104</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Шейкер черный - чернильный</t>
+          <t>Шейкер черный - зеленый</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>264</v>
+        <v>47</v>
       </c>
       <c r="C17" t="n">
         <v>216</v>
       </c>
       <c r="D17" t="n">
-        <v>57024</v>
+        <v>10152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Шейкер черный - зеленый</t>
+          <t>Шейкер черный - красный</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>336</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
         <v>216</v>
       </c>
       <c r="D18" t="n">
-        <v>72576</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Шейкер черный - черный</t>
+          <t>Шейкер черный - чернильный</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C19" t="n">
         <v>216</v>
       </c>
       <c r="D19" t="n">
-        <v>6264</v>
+        <v>13176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Шейкер черный - голубой</t>
+          <t>Электронный планшет 12 дюйм - черный-матовый</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="C20" t="n">
-        <v>216</v>
+        <v>380</v>
       </c>
       <c r="D20" t="n">
-        <v>49680</v>
+        <v>12160</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Шейкер цвет- голубой</t>
+          <t>Электронный планшет 12 дюйм - зеленый</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="C21" t="n">
-        <v>168</v>
+        <v>380</v>
       </c>
       <c r="D21" t="n">
-        <v>14448</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Одноцветный планшет, черный, 10 дм</t>
+          <t>Электронный планшет 12 дюйм - голубой</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C22" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="D22" t="n">
-        <v>2400</v>
+        <v>10260</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Электронный планшет 12 дюйм - зеленый</t>
+          <t>Электронный планшет 12 дюйм - розовый</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C23" t="n">
         <v>380</v>
       </c>
       <c r="D23" t="n">
-        <v>15960</v>
+        <v>31920</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Электронный планшет 12 дюйм - красный</t>
+          <t>Электронный планшет 12 дюйм - синий</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C24" t="n">
         <v>380</v>
       </c>
       <c r="D24" t="n">
-        <v>29640</v>
+        <v>33820</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Электронный планшет 12 дюйм - розовый</t>
+          <t>Электронный планшет 12 дюйм - белый</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="C25" t="n">
         <v>380</v>
       </c>
       <c r="D25" t="n">
-        <v>33440</v>
+        <v>15580</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Электронный планшет 12 дюйм - черный-матовый</t>
+          <t>Электронный планшет 12 дюйм - черный</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
         <v>380</v>
       </c>
       <c r="D26" t="n">
-        <v>49780</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Электронный планшет 12 дюйм - голубой</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>69</v>
-      </c>
-      <c r="C27" t="n">
-        <v>380</v>
-      </c>
-      <c r="D27" t="n">
-        <v>26220</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Электронный планшет 12 дюйм - синий</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>113</v>
-      </c>
-      <c r="C28" t="n">
-        <v>380</v>
-      </c>
-      <c r="D28" t="n">
-        <v>42940</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Электронный планшет 12 дюйм - белый</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>106</v>
-      </c>
-      <c r="C29" t="n">
-        <v>380</v>
-      </c>
-      <c r="D29" t="n">
-        <v>40280</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Электронный планшет 12 дюйм - черный</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>73</v>
-      </c>
-      <c r="C30" t="n">
-        <v>380</v>
-      </c>
-      <c r="D30" t="n">
-        <v>27740</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
           <t>Итого:</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3 044 шт.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>769 130 руб.</t>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1 280 шт.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>324 514 руб.</t>
         </is>
       </c>
     </row>

--- a/Заказ в Китае бланк.xlsx
+++ b/Заказ в Китае бланк.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Период обеспечения 3 мес.</t>
+          <t>Период обеспечения 6 мес.</t>
         </is>
       </c>
     </row>
@@ -453,401 +453,161 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Бутылка для воды-красная</t>
+          <t>Полотенце микрофибра - синее</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>264</v>
+        <v>109</v>
       </c>
       <c r="C3" t="n">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="D3" t="n">
-        <v>56496</v>
+        <v>32918</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Бутылка для воды-синяя</t>
+          <t>Полотенце микрофибра-розовое</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="C4" t="n">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="D4" t="n">
-        <v>214</v>
+        <v>70970</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Бутылка для воды-голубая</t>
+          <t>Полотенце микрофибра-голубое</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="C5" t="n">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="D5" t="n">
-        <v>8774</v>
+        <v>36240</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Бутылка для воды-зеленая</t>
+          <t>Полотенце микрофибра - серое</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="C6" t="n">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="D6" t="n">
-        <v>32956</v>
+        <v>31710</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Бутылка для воды-оранжевый</t>
+          <t>Полотенце микрофибра - фуксия</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="C7" t="n">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="D7" t="n">
-        <v>7918</v>
+        <v>65232</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Бутылка для воды-фиолетовый</t>
+          <t>Полотенце микрофибра-зеленое</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C8" t="n">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="D8" t="n">
-        <v>5992</v>
+        <v>24462</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Бутылка для воды-аквамарин</t>
+          <t>Полотенце микрофибра-черное</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>252</v>
       </c>
       <c r="C9" t="n">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="D9" t="n">
-        <v>1284</v>
+        <v>76104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Бутылка для воды 1 литр-оранжевый</t>
+          <t>Полотенце микрофибра-желтое</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C10" t="n">
-        <v>228</v>
+        <v>302</v>
       </c>
       <c r="D10" t="n">
-        <v>5928</v>
+        <v>19026</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Бутылка для воды 1 литр-аквамарин</t>
+          <t>Полотенце микрофибра-ярко-розовый</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>228</v>
+        <v>302</v>
       </c>
       <c r="D11" t="n">
-        <v>3420</v>
+        <v>5436</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Бутылка для воды 1 литр-черный</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>228</v>
-      </c>
-      <c r="D12" t="n">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Бутылка для воды 1 литр-аквамариновый</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>228</v>
-      </c>
-      <c r="D13" t="n">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Шейкер черный - черный</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>212</v>
-      </c>
-      <c r="C14" t="n">
-        <v>216</v>
-      </c>
-      <c r="D14" t="n">
-        <v>45792</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Шейкер черный - голубой</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>66</v>
-      </c>
-      <c r="C15" t="n">
-        <v>216</v>
-      </c>
-      <c r="D15" t="n">
-        <v>14256</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Шейкер черный - фиолетовый</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>216</v>
-      </c>
-      <c r="D16" t="n">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Шейкер черный - зеленый</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>47</v>
-      </c>
-      <c r="C17" t="n">
-        <v>216</v>
-      </c>
-      <c r="D17" t="n">
-        <v>10152</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Шейкер черный - красный</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>20</v>
-      </c>
-      <c r="C18" t="n">
-        <v>216</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Шейкер черный - чернильный</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>61</v>
-      </c>
-      <c r="C19" t="n">
-        <v>216</v>
-      </c>
-      <c r="D19" t="n">
-        <v>13176</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Электронный планшет 12 дюйм - черный-матовый</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>32</v>
-      </c>
-      <c r="C20" t="n">
-        <v>380</v>
-      </c>
-      <c r="D20" t="n">
-        <v>12160</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Электронный планшет 12 дюйм - зеленый</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>16</v>
-      </c>
-      <c r="C21" t="n">
-        <v>380</v>
-      </c>
-      <c r="D21" t="n">
-        <v>6080</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Электронный планшет 12 дюйм - голубой</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>27</v>
-      </c>
-      <c r="C22" t="n">
-        <v>380</v>
-      </c>
-      <c r="D22" t="n">
-        <v>10260</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Электронный планшет 12 дюйм - розовый</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>84</v>
-      </c>
-      <c r="C23" t="n">
-        <v>380</v>
-      </c>
-      <c r="D23" t="n">
-        <v>31920</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Электронный планшет 12 дюйм - синий</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>89</v>
-      </c>
-      <c r="C24" t="n">
-        <v>380</v>
-      </c>
-      <c r="D24" t="n">
-        <v>33820</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Электронный планшет 12 дюйм - белый</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>41</v>
-      </c>
-      <c r="C25" t="n">
-        <v>380</v>
-      </c>
-      <c r="D25" t="n">
-        <v>15580</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Электронный планшет 12 дюйм - черный</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>7</v>
-      </c>
-      <c r="C26" t="n">
-        <v>380</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
           <t>Итого:</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1 280 шт.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>324 514 руб.</t>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 199 шт.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>362 098 руб.</t>
         </is>
       </c>
     </row>
